--- a/pyscript/opinion.xlsx
+++ b/pyscript/opinion.xlsx
@@ -412,7 +412,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
